--- a/biology/Médecine/Xérostomie/Xérostomie.xlsx
+++ b/biology/Médecine/Xérostomie/Xérostomie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>X%C3%A9rostomie</t>
+          <t>Xérostomie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La xérostomie est une sensation de sècheresse de la bouche, lié à un manque de salive autrement dit à une hyposialie. La quantification de la production salivaire étant peu facile, on se contente souvent de constater le symptôme[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La xérostomie est une sensation de sècheresse de la bouche, lié à un manque de salive autrement dit à une hyposialie. La quantification de la production salivaire étant peu facile, on se contente souvent de constater le symptôme.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>X%C3%A9rostomie</t>
+          <t>Xérostomie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est présente dans près d'un quart de la population générale[2], essentiellement chez la personne âgée[3]. Elle peut être associée à une soif, une sensation de lèvres sèches et est plus fréquentes chez les porteurs de prothèses dentaires amovibles[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est présente dans près d'un quart de la population générale, essentiellement chez la personne âgée. Elle peut être associée à une soif, une sensation de lèvres sèches et est plus fréquentes chez les porteurs de prothèses dentaires amovibles.
 Elle peut être isolée ou dans le cadre d'un syndrome sec, atteignant plusieurs organes dont les yeux.
 </t>
         </is>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>X%C3%A9rostomie</t>
+          <t>Xérostomie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,15 +557,17 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Les causes peuvent être[5] : 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les causes peuvent être : 
 dysfonctionnement des glandes salivaires ;
-médicamenteuse[6],[7],[8],[9] :
+médicamenteuse :
 anorexigènes,
 anti-hypertenseurs,
 atropiniques,
-antidépresseurs, surtout ceux de deuxième génération[10],
+antidépresseurs, surtout ceux de deuxième génération,
 antispasmodiques,
 sédatifs,
 antiparkinsoniens,
@@ -561,13 +577,13 @@
 anti-migraineux,
 amphétamines, méthamphétamine,
 cannabis,
-certaines chimiothérapie dont les inhibiteurs de pointe de contrôle[11] ;
+certaines chimiothérapie dont les inhibiteurs de pointe de contrôle ;
 syndrome de Goujerot-Sjögren ;
 sarcoïdose ;
 dysfonctionnement immunitaire : sida…
 diabète ;
 problèmes rénaux ;
-radiothérapie cervicale[12] ;
+radiothérapie cervicale ;
 mauvaise hygiène bucco-dentaire, prothèses inadaptées ;
 tabagisme ;
 dormir la bouche ouverte, sous l'effet de certains psychotropes ;
@@ -581,7 +597,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>X%C3%A9rostomie</t>
+          <t>Xérostomie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -599,9 +615,11 @@
           <t>Risque</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il existe un risque accru de survenue d'une candidose buccale[13].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe un risque accru de survenue d'une candidose buccale.
 </t>
         </is>
       </c>
@@ -612,7 +630,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>X%C3%A9rostomie</t>
+          <t>Xérostomie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -630,13 +648,15 @@
           <t>Traitements</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une hydratation correcte est nécessaire. Un humidificateur peut être intéressant. Une stimulation des glandes salivaires peut être obtenue en suçant des bonbons ou en mâchant des chewing-gum[1].
-Le traitement symptomatique consiste en l'administration de sialagogues (anétholtrithione : Sulfarlem), substituts salivaires (Oral balance), dispositifs médicaux (Triesters de glycerol oxydés : Aequasyal). L'acide malique à 1 % en spray a une certaine efficacité[14].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une hydratation correcte est nécessaire. Un humidificateur peut être intéressant. Une stimulation des glandes salivaires peut être obtenue en suçant des bonbons ou en mâchant des chewing-gum.
+Le traitement symptomatique consiste en l'administration de sialagogues (anétholtrithione : Sulfarlem), substituts salivaires (Oral balance), dispositifs médicaux (Triesters de glycerol oxydés : Aequasyal). L'acide malique à 1 % en spray a une certaine efficacité.
 Le Salagen (5 mg de pilocarpine) est également un traitement efficace.
 Quand cela est possible l'arrêt du médicament en cause améliore les symptômes.
-L'efficacité de l'électrostimulation ou de l'acupuncture n'est pas établie[15].
+L'efficacité de l'électrostimulation ou de l'acupuncture n'est pas établie.
 </t>
         </is>
       </c>
